--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>580236.4846665761</v>
+        <v>646423.9487107842</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>525495.3633390873</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>13225332.04440389</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8319497.153065558</v>
+        <v>7266100.998235446</v>
       </c>
     </row>
     <row r="11">
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -721,10 +721,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>11.19305615617957</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>164.2983341248836</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>124.9488863009592</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>5.782984192301424</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>98.18560001662964</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>288.2429761330965</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>9.172723217728397</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755893</v>
       </c>
     </row>
     <row r="13">
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>153.7066665474637</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>61.40579841663057</v>
       </c>
       <c r="V14" t="n">
-        <v>208.1382423178597</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>61.42492297473681</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>128.4340426649161</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8782902430167723</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231963</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>9.912609003890163</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W19" t="n">
-        <v>102.5756487563989</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>268.0607811825788</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>149.4399434563965</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646384</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>171.2594975007796</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>134.8844947709055</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>28.69723130130874</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>386.3070254145917</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>71.29827195351734</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>70.80276983270129</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2273404522542</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.83830693160164</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>36.31606325004098</v>
+        <v>168.9759635025644</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>23.35455705266789</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.0731271501069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>67.87096028541164</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>105.072146075243</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>272.267986373878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3319,7 +3319,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>39.82016024261407</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>28.51033041214347</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>94.42605519832955</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3559,19 +3559,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>216.3760841877202</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>338.368229639899</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>21.35358115462532</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>126.4837616268616</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>370.2220295884322</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>16.10100981213265</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4354,22 +4354,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>30.58726043968704</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>30.58726043968704</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X2" t="n">
         <v>19.28114311021272</v>
@@ -4412,46 +4412,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>700.0686226272894</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4515,16 +4515,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
         <v>506.1786963984129</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>696.9297128060637</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
     </row>
     <row r="7">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>475.3318284112885</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.5185981156682</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>857.0462278894801</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>857.0462278894801</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>857.0462278894801</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>857.0462278894801</v>
       </c>
       <c r="X9" t="n">
-        <v>386.2788968806221</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.5185981156682</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1448.521729839487</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="C11" t="n">
-        <v>1448.521729839487</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="D11" t="n">
-        <v>1090.256031232737</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="E11" t="n">
-        <v>799.1015098861748</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>818.7624959030029</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>818.7624959030029</v>
       </c>
       <c r="W11" t="n">
-        <v>1838.661061815299</v>
+        <v>818.7624959030029</v>
       </c>
       <c r="X11" t="n">
-        <v>1838.661061815299</v>
+        <v>818.7624959030029</v>
       </c>
       <c r="Y11" t="n">
-        <v>1448.521729839487</v>
+        <v>552.8614515073797</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>659.4341920469252</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>920.0438056590754</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245969</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245969</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245969</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y13" t="n">
-        <v>358.5813018857447</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1310.833184497836</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="C14" t="n">
-        <v>1310.833184497836</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="D14" t="n">
-        <v>952.5674858910851</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="E14" t="n">
-        <v>952.5674858910851</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>619.025995415948</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="V14" t="n">
-        <v>2037.06759802903</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="W14" t="n">
-        <v>1684.298942758915</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="X14" t="n">
-        <v>1310.833184497836</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="Y14" t="n">
-        <v>1310.833184497836</v>
+        <v>556.9999364092505</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>650.2188146370821</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>326.8313756947039</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>990.9227590645091</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>818.4341516571501</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F16" t="n">
-        <v>222.942782082032</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406182</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T16" t="n">
-        <v>352.67413830922</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U16" t="n">
-        <v>352.67413830922</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y16" t="n">
-        <v>352.67413830922</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1395.511531185079</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C17" t="n">
-        <v>1395.511531185079</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D17" t="n">
-        <v>1037.245832578329</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V17" t="n">
-        <v>2134.880026519315</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W17" t="n">
-        <v>1782.111371249201</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X17" t="n">
-        <v>1782.111371249201</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y17" t="n">
-        <v>1782.111371249201</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>1094.613318441856</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>1094.613318441856</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>866.3947060760038</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>866.3947060760038</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>612.1573493478022</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y19" t="n">
-        <v>369.8327295799424</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1352.60098147425</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="C20" t="n">
-        <v>983.6384645338385</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="D20" t="n">
-        <v>625.3727659270879</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>292.8609869371771</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V20" t="n">
-        <v>1893.689751284806</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="W20" t="n">
-        <v>1742.740313450062</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="X20" t="n">
-        <v>1742.740313450062</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="Y20" t="n">
-        <v>1352.60098147425</v>
+        <v>571.8069603738999</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>633.311466553532</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>398.1593583217893</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>398.1593583217893</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>190.3078581162565</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>190.3078581162565</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.942782082032</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="C22" t="n">
-        <v>222.942782082032</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T22" t="n">
-        <v>443.7353612255621</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U22" t="n">
-        <v>443.7353612255621</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V22" t="n">
-        <v>443.7353612255621</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W22" t="n">
-        <v>443.7353612255621</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X22" t="n">
-        <v>443.7353612255621</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.942782082032</v>
+        <v>170.0056146785816</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1937.083492693021</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.120975752609</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D23" t="n">
-        <v>1568.120975752609</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.332723154365</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F23" t="n">
-        <v>771.3468183647574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1921.528004954336</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1568.759349684222</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1195.293591423142</v>
       </c>
       <c r="Y23" t="n">
-        <v>2323.683332757143</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1125.191652989356</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6262,16 +6262,16 @@
         <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>1942.704819989736</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.921096014692</v>
+        <v>1589.936164719622</v>
       </c>
       <c r="X26" t="n">
-        <v>1540.921096014692</v>
+        <v>1216.470406458542</v>
       </c>
       <c r="Y26" t="n">
-        <v>1511.791493053478</v>
+        <v>826.3310744827304</v>
       </c>
     </row>
     <row r="27">
@@ -6305,31 +6305,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073964</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>919.5755868835438</v>
+        <v>1154.32125595057</v>
       </c>
       <c r="C29" t="n">
-        <v>919.5755868835438</v>
+        <v>1154.32125595057</v>
       </c>
       <c r="D29" t="n">
-        <v>919.5755868835438</v>
+        <v>796.0555573438196</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y29" t="n">
-        <v>919.5755868835438</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="30">
@@ -6524,16 +6524,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>224.4233909876363</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C31" t="n">
-        <v>224.4233909876363</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="D31" t="n">
-        <v>224.4233909876363</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>224.4233909876363</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>224.4233909876363</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.4233909876363</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1268.68094731003</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E32" t="n">
         <v>882.8926947117852</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2359.809432978802</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2028.746545635231</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2028.746545635231</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1655.280787374151</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1655.280787374151</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="33">
@@ -6761,19 +6761,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6788,16 +6788,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1490.978909181595</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C35" t="n">
-        <v>1490.978909181595</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D35" t="n">
-        <v>1132.713210574844</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>746.9249579765999</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1881.118241157406</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1881.118241157406</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y35" t="n">
-        <v>1490.978909181595</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.4805193761945</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C37" t="n">
-        <v>377.5443364482876</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7134,13 +7134,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>936.2491605982757</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>567.286643657864</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>567.286643657864</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>567.286643657864</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7207,19 +7207,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y38" t="n">
-        <v>936.2491605982757</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>813.6928804675301</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>813.6928804675301</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>402.7069756779226</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036446</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.8207968750361</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C43" t="n">
-        <v>500.8207968750361</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D43" t="n">
-        <v>350.7041574627003</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036446</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W43" t="n">
-        <v>500.8207968750361</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X43" t="n">
-        <v>500.8207968750361</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.8207968750361</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1177.911859172214</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.911859172214</v>
+        <v>1171.958579074281</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.911859172214</v>
+        <v>813.6928804675301</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739693</v>
+        <v>427.9046278692859</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>427.9046278692859</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036446</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2680.885444743341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2680.885444743341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2680.885444743341</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2680.885444743341</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2680.885444743341</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2328.116789473227</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>1954.651031212147</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1564.511699236335</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7772,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7851,7 +7851,7 @@
         <v>184.2708856551154</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551154</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O12" t="n">
-        <v>274.4264991783518</v>
+        <v>265.0858203424871</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368072</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>129.591740357718</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>326.1643666240951</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>223.6557144812347</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>136.5441990361994</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L30" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22609,10 +22609,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>358.5380445222895</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>10.49235770196768</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22868,16 +22868,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>68.50225302454163</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>98.1469632631722</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,16 +23102,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>194.3817445025202</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>107.5873851868478</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>93.6873939391653</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>242.1655284012038</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>100.2996914017151</v>
       </c>
     </row>
     <row r="13">
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>15.59235192972113</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V13" t="n">
-        <v>98.43097677636428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>189.9324532023016</v>
       </c>
       <c r="V14" t="n">
-        <v>119.6140161522752</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.65953905230072</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>16.98700535801518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685278</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>111.4443843516484</v>
       </c>
       <c r="E17" t="n">
-        <v>381.052079829245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>160.371363617443</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23901,22 +23901,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W19" t="n">
-        <v>183.9473495801921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>147.1011673447406</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>199.8010252610165</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>54.67692874141417</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,25 +24135,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T22" t="n">
-        <v>90.15061068717876</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>197.0124240877284</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>27.47714460620324</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>256.4539865166175</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592655</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,7 +24420,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>239.1401957494188</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>48.52491801788074</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>357.399631724452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,16 +24615,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>165.3082678822158</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>345.6143068222208</v>
+        <v>212.9544065696974</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>123.0794055939013</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>23.23667510894401</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>314.0594097868502</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>146.1520214330463</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>134.6080593678334</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>329.910940435855</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>120.1051426060689</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>129.5185199959772</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>312.4499905433819</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>169.8618544683334</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25602,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>196.5877562063638</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>226.7961607607226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>43.56214043236281</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>392.4305888661697</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>19.95020101970758</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815472</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>43.56214043236281</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>38.37739276267906</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80735538553387</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.56002855569136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465309.4280328027</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804027.5870786353</v>
+        <v>485066.1118170469</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804027.5870786353</v>
+        <v>485066.1118170469</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>804027.5870786353</v>
+        <v>495642.696801423</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>804027.5870786352</v>
+        <v>495642.6968014231</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>804027.5870786352</v>
+        <v>804027.5870786355</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>804027.5870786353</v>
+        <v>804027.5870786355</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>804027.5870786353</v>
+        <v>804027.5870786355</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>804027.5870786353</v>
+        <v>804027.5870786355</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>804027.5870786352</v>
+        <v>804027.5870786353</v>
       </c>
     </row>
     <row r="14">
@@ -26322,16 +26322,16 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>216864.4575118182</v>
+        <v>130005.1129387483</v>
       </c>
       <c r="F2" t="n">
-        <v>216864.4575118182</v>
+        <v>130005.1129387483</v>
       </c>
       <c r="G2" t="n">
-        <v>216864.4575118182</v>
+        <v>132886.3748292383</v>
       </c>
       <c r="H2" t="n">
-        <v>216864.4575118182</v>
+        <v>132886.3748292383</v>
       </c>
       <c r="I2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>25125.73635942195</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>12875.63425019409</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>363855.276088607</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>5539.242983423047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3107.882466482989</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>8577.315374774353</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>8577.315374774353</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361483</v>
+        <v>8599.193178783524</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>8599.193178783524</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
@@ -26447,19 +26447,19 @@
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>16506.80740683336</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>16506.80740683336</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25195.31758619296</v>
+        <v>-14199.10802815653</v>
       </c>
       <c r="C6" t="n">
-        <v>55574.11394535477</v>
+        <v>66570.32350339116</v>
       </c>
       <c r="D6" t="n">
-        <v>55574.11394535477</v>
+        <v>66570.32350339116</v>
       </c>
       <c r="E6" t="n">
-        <v>-280652.6263747679</v>
+        <v>78609.35012598295</v>
       </c>
       <c r="F6" t="n">
-        <v>152193.5476682281</v>
+        <v>103735.0864854049</v>
       </c>
       <c r="G6" t="n">
-        <v>152193.5476682281</v>
+        <v>92691.07262434805</v>
       </c>
       <c r="H6" t="n">
-        <v>152193.547668228</v>
+        <v>105566.7068745421</v>
       </c>
       <c r="I6" t="n">
-        <v>152193.547668228</v>
+        <v>-206200.1560491417</v>
       </c>
       <c r="J6" t="n">
-        <v>89133.60506912181</v>
+        <v>94595.17744035911</v>
       </c>
       <c r="K6" t="n">
-        <v>152193.5476682281</v>
+        <v>157655.1200394654</v>
       </c>
       <c r="L6" t="n">
-        <v>152193.547668228</v>
+        <v>157655.1200394653</v>
       </c>
       <c r="M6" t="n">
-        <v>44220.18699416986</v>
+        <v>152115.8770560423</v>
       </c>
       <c r="N6" t="n">
-        <v>152193.5476682281</v>
+        <v>157655.1200394654</v>
       </c>
       <c r="O6" t="n">
-        <v>152193.5476682281</v>
+        <v>154547.2375729824</v>
       </c>
       <c r="P6" t="n">
-        <v>152193.547668228</v>
+        <v>157655.1200394653</v>
       </c>
     </row>
   </sheetData>
@@ -26746,28 +26746,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>12.00787803233572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.91447975068871</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O12" t="n">
-        <v>325.145920326212</v>
+        <v>134.267000149083</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>207.6969052949499</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>16.95427887837174</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,19 +37156,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37402,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
